--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Ephb3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.03123754097002</v>
+        <v>7.484645</v>
       </c>
       <c r="H2">
-        <v>7.03123754097002</v>
+        <v>22.453935</v>
       </c>
       <c r="I2">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J2">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.12540955392633</v>
+        <v>0.1882753333333333</v>
       </c>
       <c r="N2">
-        <v>8.12540955392633</v>
+        <v>0.5648259999999999</v>
       </c>
       <c r="O2">
-        <v>0.7339540357541608</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="P2">
-        <v>0.7339540357541608</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="Q2">
-        <v>57.13168469132327</v>
+        <v>1.409174032256667</v>
       </c>
       <c r="R2">
-        <v>57.13168469132327</v>
+        <v>12.68256629031</v>
       </c>
       <c r="S2">
-        <v>0.285681671790872</v>
+        <v>0.00609561103797668</v>
       </c>
       <c r="T2">
-        <v>0.285681671790872</v>
+        <v>0.006095611037976678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.03123754097002</v>
+        <v>7.484645</v>
       </c>
       <c r="H3">
-        <v>7.03123754097002</v>
+        <v>22.453935</v>
       </c>
       <c r="I3">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J3">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.100010945360181</v>
+        <v>8.179402000000001</v>
       </c>
       <c r="N3">
-        <v>0.100010945360181</v>
+        <v>24.538206</v>
       </c>
       <c r="O3">
-        <v>0.009033813800957758</v>
+        <v>0.6908224842953787</v>
       </c>
       <c r="P3">
-        <v>0.009033813800957758</v>
+        <v>0.6908224842953786</v>
       </c>
       <c r="Q3">
-        <v>0.7032007135244061</v>
+        <v>61.21992028229001</v>
       </c>
       <c r="R3">
-        <v>0.7032007135244061</v>
+        <v>550.9792825406101</v>
       </c>
       <c r="S3">
-        <v>0.003516289717861169</v>
+        <v>0.2648167034551271</v>
       </c>
       <c r="T3">
-        <v>0.003516289717861169</v>
+        <v>0.2648167034551271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.03123754097002</v>
+        <v>7.484645</v>
       </c>
       <c r="H4">
-        <v>7.03123754097002</v>
+        <v>22.453935</v>
       </c>
       <c r="I4">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J4">
-        <v>0.3892364615140035</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.84531303183607</v>
+        <v>0.002236</v>
       </c>
       <c r="N4">
-        <v>2.84531303183607</v>
+        <v>0.006708</v>
       </c>
       <c r="O4">
-        <v>0.2570121504448814</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="P4">
-        <v>0.2570121504448814</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="Q4">
-        <v>20.006071805257</v>
+        <v>0.01673566622</v>
       </c>
       <c r="R4">
-        <v>20.006071805257</v>
+        <v>0.15062099598</v>
       </c>
       <c r="S4">
-        <v>0.1000385000052704</v>
+        <v>7.239284105679904E-05</v>
       </c>
       <c r="T4">
-        <v>0.1000385000052704</v>
+        <v>7.239284105679903E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.2417192276463</v>
+        <v>7.484645</v>
       </c>
       <c r="H5">
-        <v>8.2417192276463</v>
+        <v>22.453935</v>
       </c>
       <c r="I5">
-        <v>0.4562465156764429</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J5">
-        <v>0.4562465156764429</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.12540955392633</v>
+        <v>0.1179923333333333</v>
       </c>
       <c r="N5">
-        <v>8.12540955392633</v>
+        <v>0.353977</v>
       </c>
       <c r="O5">
-        <v>0.7339540357541608</v>
+        <v>0.009965490978575419</v>
       </c>
       <c r="P5">
-        <v>0.7339540357541608</v>
+        <v>0.009965490978575417</v>
       </c>
       <c r="Q5">
-        <v>66.96734415309558</v>
+        <v>0.8831307277216667</v>
       </c>
       <c r="R5">
-        <v>66.96734415309558</v>
+        <v>7.948176549495</v>
       </c>
       <c r="S5">
-        <v>0.3348639714794993</v>
+        <v>0.003820125327782133</v>
       </c>
       <c r="T5">
-        <v>0.3348639714794993</v>
+        <v>0.003820125327782133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.2417192276463</v>
+        <v>7.484645</v>
       </c>
       <c r="H6">
-        <v>8.2417192276463</v>
+        <v>22.453935</v>
       </c>
       <c r="I6">
-        <v>0.4562465156764429</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="J6">
-        <v>0.4562465156764429</v>
+        <v>0.3833353856819431</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.100010945360181</v>
+        <v>3.352186666666667</v>
       </c>
       <c r="N6">
-        <v>0.100010945360181</v>
+        <v>10.05656</v>
       </c>
       <c r="O6">
-        <v>0.009033813800957758</v>
+        <v>0.2831216659712423</v>
       </c>
       <c r="P6">
-        <v>0.009033813800957758</v>
+        <v>0.2831216659712423</v>
       </c>
       <c r="Q6">
-        <v>0.8242621313500872</v>
+        <v>25.08992717373334</v>
       </c>
       <c r="R6">
-        <v>0.8242621313500872</v>
+        <v>225.8093445636</v>
       </c>
       <c r="S6">
-        <v>0.004121646069956741</v>
+        <v>0.1085305530200004</v>
       </c>
       <c r="T6">
-        <v>0.004121646069956741</v>
+        <v>0.1085305530200004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.2417192276463</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H7">
-        <v>8.2417192276463</v>
+        <v>24.89943</v>
       </c>
       <c r="I7">
-        <v>0.4562465156764429</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J7">
-        <v>0.4562465156764429</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.84531303183607</v>
+        <v>0.1882753333333333</v>
       </c>
       <c r="N7">
-        <v>2.84531303183607</v>
+        <v>0.5648259999999999</v>
       </c>
       <c r="O7">
-        <v>0.2570121504448814</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="P7">
-        <v>0.2570121504448814</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="Q7">
-        <v>23.45027112315593</v>
+        <v>1.562649494353333</v>
       </c>
       <c r="R7">
-        <v>23.45027112315593</v>
+        <v>14.06384544918</v>
       </c>
       <c r="S7">
-        <v>0.1172608981269869</v>
+        <v>0.006759494064061719</v>
       </c>
       <c r="T7">
-        <v>0.1172608981269869</v>
+        <v>0.006759494064061718</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8795020520474101</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H8">
-        <v>0.8795020520474101</v>
+        <v>24.89943</v>
       </c>
       <c r="I8">
-        <v>0.04868762641547891</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J8">
-        <v>0.04868762641547891</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.12540955392633</v>
+        <v>8.179402000000001</v>
       </c>
       <c r="N8">
-        <v>8.12540955392633</v>
+        <v>24.538206</v>
       </c>
       <c r="O8">
-        <v>0.7339540357541608</v>
+        <v>0.6908224842953787</v>
       </c>
       <c r="P8">
-        <v>0.7339540357541608</v>
+        <v>0.6908224842953786</v>
       </c>
       <c r="Q8">
-        <v>7.146314376403838</v>
+        <v>67.88748251362001</v>
       </c>
       <c r="R8">
-        <v>7.146314376403838</v>
+        <v>610.9873426225802</v>
       </c>
       <c r="S8">
-        <v>0.03573447989893163</v>
+        <v>0.2936583262805248</v>
       </c>
       <c r="T8">
-        <v>0.03573447989893163</v>
+        <v>0.2936583262805248</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8795020520474101</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H9">
-        <v>0.8795020520474101</v>
+        <v>24.89943</v>
       </c>
       <c r="I9">
-        <v>0.04868762641547891</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J9">
-        <v>0.04868762641547891</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.100010945360181</v>
+        <v>0.002236</v>
       </c>
       <c r="N9">
-        <v>0.100010945360181</v>
+        <v>0.006708</v>
       </c>
       <c r="O9">
-        <v>0.009033813800957758</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="P9">
-        <v>0.009033813800957758</v>
+        <v>0.0001888498786200344</v>
       </c>
       <c r="Q9">
-        <v>0.0879598316714806</v>
+        <v>0.01855837516</v>
       </c>
       <c r="R9">
-        <v>0.0879598316714806</v>
+        <v>0.16702537644</v>
       </c>
       <c r="S9">
-        <v>0.0004398349514480289</v>
+        <v>8.027726447034312E-05</v>
       </c>
       <c r="T9">
-        <v>0.0004398349514480289</v>
+        <v>8.027726447034312E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8795020520474101</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H10">
-        <v>0.8795020520474101</v>
+        <v>24.89943</v>
       </c>
       <c r="I10">
-        <v>0.04868762641547891</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J10">
-        <v>0.04868762641547891</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.84531303183607</v>
+        <v>0.1179923333333333</v>
       </c>
       <c r="N10">
-        <v>2.84531303183607</v>
+        <v>0.353977</v>
       </c>
       <c r="O10">
-        <v>0.2570121504448814</v>
+        <v>0.009965490978575419</v>
       </c>
       <c r="P10">
-        <v>0.2570121504448814</v>
+        <v>0.009965490978575417</v>
       </c>
       <c r="Q10">
-        <v>2.502458650217061</v>
+        <v>0.9793139481233334</v>
       </c>
       <c r="R10">
-        <v>2.502458650217061</v>
+        <v>8.81382553311</v>
       </c>
       <c r="S10">
-        <v>0.01251331156509925</v>
+        <v>0.004236181461749947</v>
       </c>
       <c r="T10">
-        <v>0.01251331156509925</v>
+        <v>0.004236181461749946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.91172127598186</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H11">
-        <v>1.91172127598186</v>
+        <v>24.89943</v>
       </c>
       <c r="I11">
-        <v>0.1058293963940747</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="J11">
-        <v>0.1058293963940747</v>
+        <v>0.4250850731647057</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.12540955392633</v>
+        <v>3.352186666666667</v>
       </c>
       <c r="N11">
-        <v>8.12540955392633</v>
+        <v>10.05656</v>
       </c>
       <c r="O11">
-        <v>0.7339540357541608</v>
+        <v>0.2831216659712423</v>
       </c>
       <c r="P11">
-        <v>0.7339540357541608</v>
+        <v>0.2831216659712423</v>
       </c>
       <c r="Q11">
-        <v>15.53351832030724</v>
+        <v>27.82251241786667</v>
       </c>
       <c r="R11">
-        <v>15.53351832030724</v>
+        <v>250.4026117608001</v>
       </c>
       <c r="S11">
-        <v>0.07767391258485794</v>
+        <v>0.1203507940938989</v>
       </c>
       <c r="T11">
-        <v>0.07767391258485794</v>
+        <v>0.1203507940938989</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.91172127598186</v>
+        <v>0.493317</v>
       </c>
       <c r="H12">
-        <v>1.91172127598186</v>
+        <v>1.479951</v>
       </c>
       <c r="I12">
-        <v>0.1058293963940747</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="J12">
-        <v>0.1058293963940747</v>
+        <v>0.02526584259620318</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.100010945360181</v>
+        <v>0.1882753333333333</v>
       </c>
       <c r="N12">
-        <v>0.100010945360181</v>
+        <v>0.5648259999999999</v>
       </c>
       <c r="O12">
-        <v>0.009033813800957758</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="P12">
-        <v>0.009033813800957758</v>
+        <v>0.01590150887618359</v>
       </c>
       <c r="Q12">
-        <v>0.1911930520761173</v>
+        <v>0.09287942261399999</v>
       </c>
       <c r="R12">
-        <v>0.1911930520761173</v>
+        <v>0.8359148035259999</v>
       </c>
       <c r="S12">
-        <v>0.000956043061691821</v>
+        <v>0.0004017650203077823</v>
       </c>
       <c r="T12">
-        <v>0.000956043061691821</v>
+        <v>0.0004017650203077823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.493317</v>
+      </c>
+      <c r="H13">
+        <v>1.479951</v>
+      </c>
+      <c r="I13">
+        <v>0.02526584259620318</v>
+      </c>
+      <c r="J13">
+        <v>0.02526584259620318</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.179402000000001</v>
+      </c>
+      <c r="N13">
+        <v>24.538206</v>
+      </c>
+      <c r="O13">
+        <v>0.6908224842953787</v>
+      </c>
+      <c r="P13">
+        <v>0.6908224842953786</v>
+      </c>
+      <c r="Q13">
+        <v>4.035038056434001</v>
+      </c>
+      <c r="R13">
+        <v>36.315342507906</v>
+      </c>
+      <c r="S13">
+        <v>0.01745421215012508</v>
+      </c>
+      <c r="T13">
+        <v>0.01745421215012508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.493317</v>
+      </c>
+      <c r="H14">
+        <v>1.479951</v>
+      </c>
+      <c r="I14">
+        <v>0.02526584259620318</v>
+      </c>
+      <c r="J14">
+        <v>0.02526584259620318</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.002236</v>
+      </c>
+      <c r="N14">
+        <v>0.006708</v>
+      </c>
+      <c r="O14">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="P14">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="Q14">
+        <v>0.001103056812</v>
+      </c>
+      <c r="R14">
+        <v>0.009927511308</v>
+      </c>
+      <c r="S14">
+        <v>4.771451307525866E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.771451307525865E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.493317</v>
+      </c>
+      <c r="H15">
+        <v>1.479951</v>
+      </c>
+      <c r="I15">
+        <v>0.02526584259620318</v>
+      </c>
+      <c r="J15">
+        <v>0.02526584259620318</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.353977</v>
+      </c>
+      <c r="O15">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P15">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q15">
+        <v>0.05820762390299999</v>
+      </c>
+      <c r="R15">
+        <v>0.523868615127</v>
+      </c>
+      <c r="S15">
+        <v>0.0002517865264585693</v>
+      </c>
+      <c r="T15">
+        <v>0.0002517865264585693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.493317</v>
+      </c>
+      <c r="H16">
+        <v>1.479951</v>
+      </c>
+      <c r="I16">
+        <v>0.02526584259620318</v>
+      </c>
+      <c r="J16">
+        <v>0.02526584259620318</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N16">
+        <v>10.05656</v>
+      </c>
+      <c r="O16">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P16">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q16">
+        <v>1.65369066984</v>
+      </c>
+      <c r="R16">
+        <v>14.88321602856</v>
+      </c>
+      <c r="S16">
+        <v>0.007153307448004221</v>
+      </c>
+      <c r="T16">
+        <v>0.007153307448004221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2771763333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.831529</v>
+      </c>
+      <c r="I17">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="J17">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1882753333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.5648259999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="P17">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="Q17">
+        <v>0.05218546655044443</v>
+      </c>
+      <c r="R17">
+        <v>0.4696691989539999</v>
+      </c>
+      <c r="S17">
+        <v>0.0002257367072095697</v>
+      </c>
+      <c r="T17">
+        <v>0.0002257367072095697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2771763333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.831529</v>
+      </c>
+      <c r="I18">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="J18">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.179402000000001</v>
+      </c>
+      <c r="N18">
+        <v>24.538206</v>
+      </c>
+      <c r="O18">
+        <v>0.6908224842953787</v>
+      </c>
+      <c r="P18">
+        <v>0.6908224842953786</v>
+      </c>
+      <c r="Q18">
+        <v>2.267136655219333</v>
+      </c>
+      <c r="R18">
+        <v>20.404229896974</v>
+      </c>
+      <c r="S18">
+        <v>0.009806867642902607</v>
+      </c>
+      <c r="T18">
+        <v>0.009806867642902607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2771763333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.831529</v>
+      </c>
+      <c r="I19">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="J19">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.002236</v>
+      </c>
+      <c r="N19">
+        <v>0.006708</v>
+      </c>
+      <c r="O19">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="P19">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="Q19">
+        <v>0.0006197662813333333</v>
+      </c>
+      <c r="R19">
+        <v>0.005577896532</v>
+      </c>
+      <c r="S19">
+        <v>2.680899661066937E-06</v>
+      </c>
+      <c r="T19">
+        <v>2.680899661066937E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2771763333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.831529</v>
+      </c>
+      <c r="I20">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="J20">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.353977</v>
+      </c>
+      <c r="O20">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P20">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q20">
+        <v>0.03270468231477777</v>
+      </c>
+      <c r="R20">
+        <v>0.294342140833</v>
+      </c>
+      <c r="S20">
+        <v>0.000141469412541069</v>
+      </c>
+      <c r="T20">
+        <v>0.000141469412541069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2771763333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.831529</v>
+      </c>
+      <c r="I21">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="J21">
+        <v>0.01419593001942512</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N21">
+        <v>10.05656</v>
+      </c>
+      <c r="O21">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P21">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q21">
+        <v>0.9291468089155555</v>
+      </c>
+      <c r="R21">
+        <v>8.36232128024</v>
+      </c>
+      <c r="S21">
+        <v>0.00401917535711081</v>
+      </c>
+      <c r="T21">
+        <v>0.00401917535711081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H22">
+        <v>2.783958</v>
+      </c>
+      <c r="I22">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J22">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1882753333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.5648259999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="P22">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="Q22">
+        <v>0.1747168734786667</v>
+      </c>
+      <c r="R22">
+        <v>1.572451861308</v>
+      </c>
+      <c r="S22">
+        <v>0.0007557661992903908</v>
+      </c>
+      <c r="T22">
+        <v>0.0007557661992903907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H23">
+        <v>2.783958</v>
+      </c>
+      <c r="I23">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J23">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.179402000000001</v>
+      </c>
+      <c r="N23">
+        <v>24.538206</v>
+      </c>
+      <c r="O23">
+        <v>0.6908224842953787</v>
+      </c>
+      <c r="P23">
+        <v>0.6908224842953786</v>
+      </c>
+      <c r="Q23">
+        <v>7.590370544372002</v>
+      </c>
+      <c r="R23">
+        <v>68.31333489934801</v>
+      </c>
+      <c r="S23">
+        <v>0.03283337998963338</v>
+      </c>
+      <c r="T23">
+        <v>0.03283337998963338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H24">
+        <v>2.783958</v>
+      </c>
+      <c r="I24">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J24">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.002236</v>
+      </c>
+      <c r="N24">
+        <v>0.006708</v>
+      </c>
+      <c r="O24">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="P24">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="Q24">
+        <v>0.002074976696</v>
+      </c>
+      <c r="R24">
+        <v>0.018674790264</v>
+      </c>
+      <c r="S24">
+        <v>8.975648544578228E-06</v>
+      </c>
+      <c r="T24">
+        <v>8.975648544578226E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H25">
+        <v>2.783958</v>
+      </c>
+      <c r="I25">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J25">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.353977</v>
+      </c>
+      <c r="O25">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P25">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q25">
+        <v>0.1094952334406667</v>
+      </c>
+      <c r="R25">
+        <v>0.985457100966</v>
+      </c>
+      <c r="S25">
+        <v>0.000473639407403722</v>
+      </c>
+      <c r="T25">
+        <v>0.0004736394074037219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9279860000000001</v>
+      </c>
+      <c r="H26">
+        <v>2.783958</v>
+      </c>
+      <c r="I26">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="J26">
+        <v>0.04752795506232342</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N26">
+        <v>10.05656</v>
+      </c>
+      <c r="O26">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P26">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q26">
+        <v>3.110782296053334</v>
+      </c>
+      <c r="R26">
+        <v>27.99704066448</v>
+      </c>
+      <c r="S26">
+        <v>0.01345619381745134</v>
+      </c>
+      <c r="T26">
+        <v>0.01345619381745134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.042122</v>
+      </c>
+      <c r="H27">
+        <v>6.126366</v>
+      </c>
+      <c r="I27">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J27">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.1882753333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.5648259999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="P27">
+        <v>0.01590150887618359</v>
+      </c>
+      <c r="Q27">
+        <v>0.3844812002573333</v>
+      </c>
+      <c r="R27">
+        <v>3.460330802316</v>
+      </c>
+      <c r="S27">
+        <v>0.00166313584733745</v>
+      </c>
+      <c r="T27">
+        <v>0.00166313584733745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.042122</v>
+      </c>
+      <c r="H28">
+        <v>6.126366</v>
+      </c>
+      <c r="I28">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J28">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.179402000000001</v>
+      </c>
+      <c r="N28">
+        <v>24.538206</v>
+      </c>
+      <c r="O28">
+        <v>0.6908224842953787</v>
+      </c>
+      <c r="P28">
+        <v>0.6908224842953786</v>
+      </c>
+      <c r="Q28">
+        <v>16.703336771044</v>
+      </c>
+      <c r="R28">
+        <v>150.330030939396</v>
+      </c>
+      <c r="S28">
+        <v>0.07225299477706572</v>
+      </c>
+      <c r="T28">
+        <v>0.07225299477706572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.042122</v>
+      </c>
+      <c r="H29">
+        <v>6.126366</v>
+      </c>
+      <c r="I29">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J29">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.002236</v>
+      </c>
+      <c r="N29">
+        <v>0.006708</v>
+      </c>
+      <c r="O29">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="P29">
+        <v>0.0001888498786200344</v>
+      </c>
+      <c r="Q29">
+        <v>0.004566184792</v>
+      </c>
+      <c r="R29">
+        <v>0.041095663128</v>
+      </c>
+      <c r="S29">
+        <v>1.975177357972122E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.975177357972122E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.91172127598186</v>
-      </c>
-      <c r="H13">
-        <v>1.91172127598186</v>
-      </c>
-      <c r="I13">
-        <v>0.1058293963940747</v>
-      </c>
-      <c r="J13">
-        <v>0.1058293963940747</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.84531303183607</v>
-      </c>
-      <c r="N13">
-        <v>2.84531303183607</v>
-      </c>
-      <c r="O13">
-        <v>0.2570121504448814</v>
-      </c>
-      <c r="P13">
-        <v>0.2570121504448814</v>
-      </c>
-      <c r="Q13">
-        <v>5.439445459789467</v>
-      </c>
-      <c r="R13">
-        <v>5.439445459789467</v>
-      </c>
-      <c r="S13">
-        <v>0.02719944074752491</v>
-      </c>
-      <c r="T13">
-        <v>0.02719944074752491</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.042122</v>
+      </c>
+      <c r="H30">
+        <v>6.126366</v>
+      </c>
+      <c r="I30">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J30">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1179923333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.353977</v>
+      </c>
+      <c r="O30">
+        <v>0.009965490978575419</v>
+      </c>
+      <c r="P30">
+        <v>0.009965490978575417</v>
+      </c>
+      <c r="Q30">
+        <v>0.2409547397313333</v>
+      </c>
+      <c r="R30">
+        <v>2.168592657582</v>
+      </c>
+      <c r="S30">
+        <v>0.001042288842639979</v>
+      </c>
+      <c r="T30">
+        <v>0.001042288842639979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.042122</v>
+      </c>
+      <c r="H31">
+        <v>6.126366</v>
+      </c>
+      <c r="I31">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="J31">
+        <v>0.1045898134753994</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.352186666666667</v>
+      </c>
+      <c r="N31">
+        <v>10.05656</v>
+      </c>
+      <c r="O31">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="P31">
+        <v>0.2831216659712423</v>
+      </c>
+      <c r="Q31">
+        <v>6.845574140106667</v>
+      </c>
+      <c r="R31">
+        <v>61.61016726096</v>
+      </c>
+      <c r="S31">
+        <v>0.02961164223477657</v>
+      </c>
+      <c r="T31">
+        <v>0.02961164223477658</v>
       </c>
     </row>
   </sheetData>
